--- a/biology/Zoologie/Guibemantis_timidus/Guibemantis_timidus.xlsx
+++ b/biology/Zoologie/Guibemantis_timidus/Guibemantis_timidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibemantis timidus  est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibemantis timidus  est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre, en plaine, dans plusieurs localités de l'Est de l'île ainsi que sur l'île Sainte-Marie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre, en plaine, dans plusieurs localités de l'Est de l'île ainsi que sur l'île Sainte-Marie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 9 spécimens mâles adultes observés lors de la description originale mesurent entre 33,7 mm et 55,4 mm de longueur standard et le spécimen femelle adulte observé lors de la description originale mesure 44,1 mm de longueur standard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 9 spécimens mâles adultes observés lors de la description originale mesurent entre 33,7 mm et 55,4 mm de longueur standard et le spécimen femelle adulte observé lors de la description originale mesure 44,1 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, latin, timidus, « timide », lui a été donné en référence à son chant d'appel discret de cette espèce[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, latin, timidus, « timide », lui a été donné en référence à son chant d'appel discret de cette espèce.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vences &amp; Glaw, 2005 : A new species of Mantidactylus from the east coast of Madagascar and its molecular phylogenetic relationships within the subgenus Guibemantis. Herpetological Journal, vol. 15, p. 37-44 (texte intégral).</t>
         </is>
